--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>bvf654uk,.kl</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>biut</t>
+  </si>
+  <si>
+    <t>nhgtr</t>
+  </si>
+  <si>
+    <t>ng45876yuj</t>
   </si>
 </sst>
 </file>
@@ -368,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -407,6 +413,16 @@
     <row r="7" spans="1:4">
       <c r="D7" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
